--- a/biology/Botanique/Prunus_speciosa/Prunus_speciosa.xlsx
+++ b/biology/Botanique/Prunus_speciosa/Prunus_speciosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Prunus speciosa est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un cerisier à fleurs japonais natif de la Péninsule d'Izu et de l'île Izu Ōshima. Au Japon, il est appelé Cerisier d'Ōshima (オオシマザクラ, Oshima-zakura?). Il est parfois nommé, notamment au Japon, Prunus lannesiana var. speciosa.
 C'est l'un des parents de l'hybride Prunus ×yedoensis.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste ou un petit arbre de 4 à 12 mètres de haut.
 Les fleurs abondantes sont blanches et à cinq pétales. La floraison est printanière.
@@ -548,7 +562,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme tous les cerisiers, il préfère le plein soleil et un sol bien drainé.
 Un arbre d'environ 800 ans, au tronc de 8 mètres de circonférence, sur l'île Izu Ōshima, témoigne de sa longévité.
@@ -581,7 +597,9 @@
           <t>Sakura et Hanami</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Japonais célèbrent la floraison des cerisiers à fleurs (sakura) lors de manifestations appelées Hanami.
 </t>
